--- a/Bericht2_MitKommentaren.xlsx
+++ b/Bericht2_MitKommentaren.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6288238A-23E3-4E15-9F5D-B4C09A600E53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D680B3-B55D-4BB2-9241-A8B9266B5E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="383">
   <si>
     <t>330-2018</t>
   </si>
@@ -2304,23 +2304,10 @@
     <t>AC</t>
   </si>
   <si>
-    <t>NAWOO Sn:1701020</t>
-  </si>
-  <si>
     <t>KAYNAK+HAZ</t>
   </si>
   <si>
-    <t>BT-20 LOT:B036P01
-BT-10 LOT:B083P01</t>
-  </si>
-  <si>
     <t>15 ºc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mm</t>
-  </si>
-  <si>
-    <t>100 mm</t>
   </si>
   <si>
     <t>3.2 kA/m</t>
@@ -2460,9 +2447,6 @@
     </r>
   </si>
   <si>
-    <t>W/m2</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Işık mesafesi
 </t>
@@ -2705,12 +2689,6 @@
     <t>TAG GEMİ</t>
   </si>
   <si>
-    <t>KAYNAKÇI TESTİ</t>
-  </si>
-  <si>
-    <t>İZMİT</t>
-  </si>
-  <si>
     <t>FCAW (136)</t>
   </si>
   <si>
@@ -2738,61 +2716,877 @@
     <t>OK</t>
   </si>
   <si>
-    <t>LEVEL 2</t>
-  </si>
-  <si>
-    <t>LEVEL 3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> GÖZETİM MUAYENE VE EĞİTİM HİZMETLERİ</t>
   </si>
   <si>
-    <t>fsdf</t>
-  </si>
-  <si>
-    <t>fadsfsadf</t>
-  </si>
-  <si>
-    <t>fasdfdsaf</t>
+    <t>İSTANBUL</t>
+  </si>
+  <si>
+    <t>KEMAL BERKE AK</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Resul Ekinci</t>
+  </si>
+  <si>
+    <t>PROJE Z</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A PROJESİ</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AHMET YILMAZ</t>
+  </si>
+  <si>
+    <t>BERKCAN AK</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PROJECT B</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>KAYNAK ÖNCESİ</t>
+  </si>
+  <si>
+    <t>02.06.2020</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>ARSLAN PROJE</t>
-  </si>
-  <si>
-    <t>İSTANBUL</t>
-  </si>
-  <si>
-    <t>KEMAL BERKE AK</t>
-  </si>
-  <si>
-    <t>AHMET YILMAZ</t>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>KAYNAK SONRASI</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>17.06.2020</t>
+  </si>
+  <si>
+    <t>4231</t>
+  </si>
+  <si>
+    <t>12315</t>
+  </si>
+  <si>
+    <t>qqqq</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>deneme</t>
+  </si>
+  <si>
+    <t>20.06.2020</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>asddasd</t>
+  </si>
+  <si>
+    <t>yüzey</t>
+  </si>
+  <si>
+    <t>blmm</t>
+  </si>
+  <si>
+    <t>Standarttan sapma yoktur....</t>
+  </si>
+  <si>
+    <t>blmmmmm</t>
+  </si>
+  <si>
+    <t>3-</t>
+  </si>
+  <si>
+    <t>İŞLEMLER TAMAMLANDI</t>
+  </si>
+  <si>
+    <t>asdasddsa</t>
+  </si>
+  <si>
+    <t>03.06.2020</t>
+  </si>
+  <si>
+    <t>deneme2</t>
+  </si>
+  <si>
+    <t>deneme3</t>
+  </si>
+  <si>
+    <t>deneme4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11111111111</t>
+  </si>
+  <si>
+    <t>01.06.2020</t>
+  </si>
+  <si>
+    <t>ortam</t>
+  </si>
+  <si>
+    <t>giderim</t>
+  </si>
+  <si>
+    <t>isil islem</t>
+  </si>
+  <si>
+    <t>yüzeysicaklik</t>
+  </si>
+  <si>
+    <t>kaldirmatesti</t>
+  </si>
+  <si>
+    <t>Standarttan sapma yoktur. asd</t>
+  </si>
+  <si>
+    <t>aciklama</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>Raporno</t>
+  </si>
+  <si>
+    <t>ort</t>
+  </si>
+  <si>
+    <t>işlem</t>
+  </si>
+  <si>
+    <t>sıcaklık</t>
+  </si>
+  <si>
+    <t>alanşiddet kA/m</t>
+  </si>
+  <si>
+    <t>TAŞLANMIŞmış / GRINDING</t>
+  </si>
+  <si>
+    <t>***ii</t>
+  </si>
+  <si>
+    <t>kaldirmatestii</t>
+  </si>
+  <si>
+    <t>ek yok.</t>
+  </si>
+  <si>
+    <t>RES-</t>
+  </si>
+  <si>
+    <t>rap</t>
+  </si>
+  <si>
+    <t>mua</t>
+  </si>
+  <si>
+    <t>mık</t>
+  </si>
+  <si>
+    <t>isil</t>
+  </si>
+  <si>
+    <t>3.32 kA/m</t>
+  </si>
+  <si>
+    <t>asdTAŞLANMIŞ / GRINDING</t>
+  </si>
+  <si>
+    <t>asd***</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>Standarttan sapma yoktur.asdasd</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>1f</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>05.06.2020</t>
+  </si>
+  <si>
+    <t>5678</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>mik</t>
+  </si>
+  <si>
+    <t>33.2 kA/m</t>
+  </si>
+  <si>
+    <t>3TAŞLANMIŞ / GRINDING</t>
+  </si>
+  <si>
+    <t>3***</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Standarttan sapma yoktur.33</t>
+  </si>
+  <si>
+    <t>3333333333333333</t>
+  </si>
+  <si>
+    <t>kp1</t>
+  </si>
+  <si>
+    <t>ku1</t>
+  </si>
+  <si>
+    <t>ky1</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>ht1</t>
+  </si>
+  <si>
+    <t>hy1</t>
+  </si>
+  <si>
+    <t>kp2</t>
+  </si>
+  <si>
+    <t>ku2</t>
+  </si>
+  <si>
+    <t>ky2</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>ht2</t>
+  </si>
+  <si>
+    <t>hy2</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>kp3</t>
+  </si>
+  <si>
+    <t>ku3</t>
+  </si>
+  <si>
+    <t>ky3</t>
+  </si>
+  <si>
+    <t>k3k</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>ht3</t>
+  </si>
+  <si>
+    <t>hy3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>kp4</t>
+  </si>
+  <si>
+    <t>ku4</t>
+  </si>
+  <si>
+    <t>ky4</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>ht4</t>
+  </si>
+  <si>
+    <t>hy4</t>
+  </si>
+  <si>
+    <t>kp5</t>
+  </si>
+  <si>
+    <t>ku5</t>
+  </si>
+  <si>
+    <t>ky5</t>
+  </si>
+  <si>
+    <t>k5</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>ht5</t>
+  </si>
+  <si>
+    <t>hy5</t>
+  </si>
+  <si>
+    <t>kp6</t>
+  </si>
+  <si>
+    <t>ku6</t>
+  </si>
+  <si>
+    <t>ky6</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>ht6</t>
+  </si>
+  <si>
+    <t>hy6</t>
+  </si>
+  <si>
+    <t>kp7</t>
+  </si>
+  <si>
+    <t>ku7</t>
+  </si>
+  <si>
+    <t>ky7</t>
+  </si>
+  <si>
+    <t>k7</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>ht7</t>
+  </si>
+  <si>
+    <t>hy7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>kp8</t>
+  </si>
+  <si>
+    <t>ku8</t>
+  </si>
+  <si>
+    <t>ky8</t>
+  </si>
+  <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>ht8</t>
+  </si>
+  <si>
+    <t>hy8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>kp9</t>
+  </si>
+  <si>
+    <t>ku9</t>
+  </si>
+  <si>
+    <t>ky9</t>
+  </si>
+  <si>
+    <t>k9</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>ht9</t>
+  </si>
+  <si>
+    <t>hy9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>kp10</t>
+  </si>
+  <si>
+    <t>ku10</t>
+  </si>
+  <si>
+    <t>ky10</t>
+  </si>
+  <si>
+    <t>k10</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>ht10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>kp11</t>
+  </si>
+  <si>
+    <t>ku11</t>
+  </si>
+  <si>
+    <t>ky11</t>
+  </si>
+  <si>
+    <t>k11</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>ht11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>kp12</t>
+  </si>
+  <si>
+    <t>ku12</t>
+  </si>
+  <si>
+    <t>ky12</t>
+  </si>
+  <si>
+    <t>k12</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>ht12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>kp13</t>
+  </si>
+  <si>
+    <t>ku13</t>
+  </si>
+  <si>
+    <t>ky13</t>
+  </si>
+  <si>
+    <t>k13</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>ht13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>kp14</t>
+  </si>
+  <si>
+    <t>ku14</t>
+  </si>
+  <si>
+    <t>ky14</t>
+  </si>
+  <si>
+    <t>k14</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>ht14</t>
+  </si>
+  <si>
+    <t>b-</t>
+  </si>
+  <si>
+    <t>rpn</t>
+  </si>
+  <si>
+    <t>30.06.2020</t>
+  </si>
+  <si>
+    <t>KAYNAK+HAZasdsadada</t>
+  </si>
+  <si>
+    <t>1200 Lux333333</t>
+  </si>
+  <si>
+    <t>isili</t>
+  </si>
+  <si>
+    <t>yzy</t>
+  </si>
+  <si>
+    <t>33333.2 kA/m</t>
+  </si>
+  <si>
+    <t>33TAŞLANMIŞ / GRINDING</t>
+  </si>
+  <si>
+    <t>333***</t>
+  </si>
+  <si>
+    <t>3333333333333</t>
+  </si>
+  <si>
+    <t>Standarttan sapma yoktur.asd3</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>ka2</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>2hy</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>ka3</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>3hu</t>
+  </si>
+  <si>
+    <t>ka4</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>4hy</t>
+  </si>
+  <si>
+    <t>ka5</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>5hy</t>
+  </si>
+  <si>
+    <t>ka6</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>6hy</t>
+  </si>
+  <si>
+    <t>ka7</t>
+  </si>
+  <si>
+    <t>c68</t>
+  </si>
+  <si>
+    <t>7hy</t>
+  </si>
+  <si>
+    <t>ka8</t>
+  </si>
+  <si>
+    <t>8hy</t>
+  </si>
+  <si>
+    <t>ka9</t>
+  </si>
+  <si>
+    <t>9hy</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>ka10</t>
+  </si>
+  <si>
+    <t>kkk</t>
+  </si>
+  <si>
+    <t>ka11</t>
+  </si>
+  <si>
+    <t>kkkk</t>
+  </si>
+  <si>
+    <t>ka12</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>kkkkkk</t>
+  </si>
+  <si>
+    <t>kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>ka14</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>18.06.2020</t>
+  </si>
+  <si>
+    <t>-s</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ı</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>dsasda</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>dsasd</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>ASDSAD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>ASSA</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SDSA</t>
+  </si>
+  <si>
+    <t>10.06.2020</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>ASAD</t>
+  </si>
+  <si>
+    <t>DDSA</t>
+  </si>
+  <si>
+    <t>SADS</t>
+  </si>
+  <si>
+    <t>DSADSA</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>AD</t>
   </si>
   <si>
     <t>MEHMET AY</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>BERKCAN AK</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>A PROJESİ</t>
-  </si>
-  <si>
-    <t>Resul Ekinci</t>
+    <t>99</t>
+  </si>
+  <si>
+    <t>ASDDASD</t>
+  </si>
+  <si>
+    <t>ADSADAS</t>
+  </si>
+  <si>
+    <t>ASDASD</t>
+  </si>
+  <si>
+    <t>ASDSDA</t>
+  </si>
+  <si>
+    <t>ADDA</t>
+  </si>
+  <si>
+    <t>SDASD</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>ASDADSSD</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>DDASSA</t>
   </si>
 </sst>
 </file>
@@ -2987,7 +3781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -3421,6 +4215,250 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom>
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="12"/>
+      </left>
+      <bottom>
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="12"/>
+      </right>
+      <bottom>
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="12"/>
+      </right>
+      <top>
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="12"/>
+      </top>
+      <bottom>
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="12"/>
+      </left>
+      <right>
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="12"/>
+      </left>
+      <right style="medium">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="12"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3442,7 +4480,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3482,6 +4520,357 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3518,360 +4907,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3885,6 +4920,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4454,8 +5531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4489,1648 +5566,1780 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="133"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="23"/>
     </row>
     <row r="2" spans="1:28" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="134" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="136"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="26"/>
     </row>
     <row r="3" spans="1:28" s="4" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" t="s" s="149">
-        <v>87</v>
-      </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="141" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" t="s" s="162">
+        <v>82</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="141" t="s">
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" t="s" s="162">
+        <v>81</v>
+      </c>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="143">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="144"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" t="s" s="162">
+        <v>105</v>
+      </c>
+      <c r="AB3" s="34"/>
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" t="s" s="149">
-        <v>116</v>
-      </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="41" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" t="s" s="162">
+        <v>99</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="123">
-        <v>0.2</v>
-      </c>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="41" t="s">
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" t="s" s="162">
+        <v>107</v>
+      </c>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="120">
-        <v>2019101621</v>
-      </c>
-      <c r="AB4" s="121"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" t="s" s="162">
+        <v>350</v>
+      </c>
+      <c r="AB4" s="41"/>
     </row>
     <row r="5" spans="1:28" s="4" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" t="s" s="149">
-        <v>107</v>
-      </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="41" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" t="s" s="162">
+        <v>93</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="119" t="s">
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" t="s" s="162">
         <v>1</v>
       </c>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="41" t="s">
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="122">
-        <v>43754</v>
-      </c>
-      <c r="AB5" s="121"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" t="s" s="162">
+        <v>141</v>
+      </c>
+      <c r="AB5" s="41"/>
     </row>
     <row r="6" spans="1:28" s="4" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" t="s" s="162">
         <v>46</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="41" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="41" t="s">
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="162"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="120">
-        <v>2604</v>
-      </c>
-      <c r="AB6" s="121"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" t="s" s="162">
+        <v>110</v>
+      </c>
+      <c r="AB6" s="41"/>
     </row>
     <row r="7" spans="1:28" s="4" customFormat="1" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" t="s" s="162">
         <v>47</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="37" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="37" t="s">
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="116"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" t="s" s="162">
+        <v>110</v>
+      </c>
+      <c r="AB7" s="50"/>
     </row>
     <row r="8" spans="1:28" s="4" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="112"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="54"/>
     </row>
     <row r="9" spans="1:28" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" t="s" s="149">
-        <v>4</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="46"/>
+      <c r="A9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" t="s" s="162">
+        <v>100</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" t="s" s="144">
+        <v>100</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" t="s" s="162">
+        <v>49</v>
+      </c>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" t="s" s="162">
+        <v>350</v>
+      </c>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="55"/>
     </row>
     <row r="10" spans="1:28" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" t="s" s="149">
-        <v>111</v>
-      </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="45" t="s">
+      <c r="A10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" t="s" s="162">
+        <v>101</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" t="s" s="144">
+        <v>101</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" t="s" s="162">
         <v>48</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="46"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" t="s" s="162">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="55"/>
     </row>
     <row r="11" spans="1:28" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="41" t="s">
+      <c r="A11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" t="s" s="162">
+        <v>100</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="46"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" t="s" s="162">
+        <v>53</v>
+      </c>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" t="s" s="151">
+        <v>68</v>
+      </c>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="55"/>
     </row>
     <row r="12" spans="1:28" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="35"/>
+      <c r="A12" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" t="s" s="162">
+        <v>100</v>
+      </c>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" t="s" s="162">
+        <v>355</v>
+      </c>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" t="s" s="162">
+        <v>68</v>
+      </c>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="129"/>
     </row>
     <row r="13" spans="1:28" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="21" t="s">
+      <c r="A13" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" t="s" s="162">
+        <v>100</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" t="s" s="162">
+        <v>372</v>
+      </c>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" t="s" s="162">
         <v>45</v>
       </c>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="23"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="140"/>
     </row>
     <row r="14" spans="1:28" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="26"/>
+      <c r="A14" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" t="s" s="162">
+        <v>100</v>
+      </c>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="130"/>
+      <c r="K14" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" t="s" s="162">
+        <v>373</v>
+      </c>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" t="s" s="162">
+        <v>374</v>
+      </c>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="143"/>
     </row>
     <row r="15" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="108"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="108"/>
-      <c r="Z15" s="108"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="109"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="76"/>
     </row>
     <row r="16" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="R16" s="104"/>
-      <c r="S16" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="91"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="R16" s="71"/>
+      <c r="S16" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="57"/>
     </row>
     <row r="17" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" s="104"/>
-      <c r="S17" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="91"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="71"/>
+      <c r="S17" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="57"/>
     </row>
     <row r="18" spans="1:28" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="98"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="R18" s="104"/>
-      <c r="S18" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="91"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" s="71"/>
+      <c r="S18" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="57"/>
     </row>
     <row r="19" spans="1:28" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="92" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="R19" s="93"/>
-      <c r="S19" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="95"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="61"/>
     </row>
     <row r="20" spans="1:28" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" t="s" s="162">
         <v>6</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="81"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="89"/>
     </row>
     <row r="21" spans="1:28" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84">
-        <v>43754</v>
-      </c>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="86"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" t="s" s="162">
+        <v>141</v>
+      </c>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="94"/>
     </row>
     <row r="22" spans="1:28" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="89"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" t="s" s="162">
+        <v>375</v>
+      </c>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="98"/>
     </row>
     <row r="23" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="62"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="79"/>
     </row>
     <row r="24" spans="1:28" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="73" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="44" t="s">
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
       <c r="R24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="73" t="s">
+      <c r="S24" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="75" t="s">
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="73" t="s">
+      <c r="X24" s="84"/>
+      <c r="Y24" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
       <c r="AB24" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28">
-        <v>300</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="5">
-        <v>12</v>
-      </c>
-      <c r="S25" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="11" t="s">
-        <v>98</v>
+      <c r="A25" t="s" s="162">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s" s="162">
+        <v>350</v>
+      </c>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" t="s" s="162">
+        <v>358</v>
+      </c>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" t="s" s="162">
+        <v>376</v>
+      </c>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" t="s" s="162">
+        <v>350</v>
+      </c>
+      <c r="S25" t="s" s="162">
+        <v>377</v>
+      </c>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" t="s" s="162">
+        <v>374</v>
+      </c>
+      <c r="X25" s="102"/>
+      <c r="Y25" t="s" s="162">
+        <v>378</v>
+      </c>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" t="s" s="162">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28">
-        <v>300</v>
-      </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="14">
-        <v>12</v>
-      </c>
-      <c r="S26" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="11" t="s">
-        <v>98</v>
+      <c r="A26" t="s" s="162">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s" s="162">
+        <v>379</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" t="s" s="162">
+        <v>355</v>
+      </c>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" t="s" s="162">
+        <v>378</v>
+      </c>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" t="s" s="162">
+        <v>378</v>
+      </c>
+      <c r="S26" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X26" s="102"/>
+      <c r="Y26" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" t="s" s="162">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28">
-        <v>300</v>
-      </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="14">
-        <v>12</v>
-      </c>
-      <c r="S27" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A27" t="s" s="162">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s" s="162">
+        <v>380</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" t="s" s="162">
+        <v>369</v>
+      </c>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S27" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X27" s="102"/>
+      <c r="Y27" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="162"/>
     </row>
     <row r="28" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>4</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28">
-        <v>300</v>
-      </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="14">
-        <v>12</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A28" t="s" s="162">
+        <v>209</v>
+      </c>
+      <c r="B28" t="s" s="162">
+        <v>381</v>
+      </c>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" t="s" s="162">
+        <v>350</v>
+      </c>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S28" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X28" s="102"/>
+      <c r="Y28" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="162"/>
     </row>
     <row r="29" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>5</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28">
-        <v>300</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="14">
-        <v>12</v>
-      </c>
-      <c r="S29" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A29" t="s" s="162">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s" s="162">
+        <v>382</v>
+      </c>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" t="s" s="162">
+        <v>356</v>
+      </c>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S29" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X29" s="102"/>
+      <c r="Y29" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="162"/>
     </row>
     <row r="30" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>6</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28">
-        <v>300</v>
-      </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="14">
-        <v>12</v>
-      </c>
-      <c r="S30" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A30" t="s" s="162">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S30" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X30" s="102"/>
+      <c r="Y30" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="162"/>
     </row>
     <row r="31" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>7</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28">
-        <v>300</v>
-      </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="5">
-        <v>4</v>
-      </c>
-      <c r="S31" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A31" t="s" s="162">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S31" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X31" s="102"/>
+      <c r="Y31" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="162"/>
     </row>
     <row r="32" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>8</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="11"/>
+      <c r="A32" t="s" s="162">
+        <v>238</v>
+      </c>
+      <c r="B32" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S32" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X32" s="102"/>
+      <c r="Y32" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="162"/>
     </row>
     <row r="33" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>9</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="11"/>
+      <c r="A33" t="s" s="162">
+        <v>246</v>
+      </c>
+      <c r="B33" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S33" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X33" s="102"/>
+      <c r="Y33" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="162"/>
     </row>
     <row r="34" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>10</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="11"/>
+      <c r="A34" t="s" s="162">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S34" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T34" s="100"/>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X34" s="102"/>
+      <c r="Y34" t="s" s="162">
+        <v>378</v>
+      </c>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="162"/>
     </row>
     <row r="35" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>11</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="11"/>
+      <c r="A35" t="s" s="162">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S35" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X35" s="102"/>
+      <c r="Y35" t="s" s="162">
+        <v>378</v>
+      </c>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="162"/>
     </row>
     <row r="36" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="11"/>
+      <c r="B36" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S36" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T36" s="100"/>
+      <c r="U36" s="100"/>
+      <c r="V36" s="100"/>
+      <c r="W36" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X36" s="102"/>
+      <c r="Y36" t="s" s="162">
+        <v>378</v>
+      </c>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="162"/>
     </row>
     <row r="37" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>13</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="11"/>
+      <c r="A37" t="s" s="162">
+        <v>275</v>
+      </c>
+      <c r="B37" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S37" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T37" s="100"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="100"/>
+      <c r="W37" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X37" s="102"/>
+      <c r="Y37" t="s" s="162">
+        <v>378</v>
+      </c>
+      <c r="Z37" s="65"/>
+      <c r="AA37" s="65"/>
+      <c r="AB37" s="162"/>
     </row>
     <row r="38" spans="1:28" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>14</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="12"/>
+      <c r="A38" t="s" s="162">
+        <v>282</v>
+      </c>
+      <c r="B38" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="S38" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="T38" s="106"/>
+      <c r="U38" s="106"/>
+      <c r="V38" s="106"/>
+      <c r="W38" t="s" s="162">
+        <v>111</v>
+      </c>
+      <c r="X38" s="108"/>
+      <c r="Y38" t="s" s="162">
+        <v>378</v>
+      </c>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="162"/>
     </row>
     <row r="39" spans="1:28" s="4" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60" t="s">
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="61" t="s">
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61" t="s">
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="61" t="s">
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="62"/>
+      <c r="AA39" s="78"/>
+      <c r="AB39" s="79"/>
     </row>
     <row r="40" spans="1:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" t="s" s="149">
-        <v>108</v>
-      </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" t="s" s="149">
-        <v>113</v>
-      </c>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="65"/>
-      <c r="U40" t="s" s="149">
-        <v>117</v>
-      </c>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="55"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" t="s" s="162">
+        <v>102</v>
+      </c>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" t="s" s="162">
+        <v>102</v>
+      </c>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="117"/>
+      <c r="U40" t="s" s="162">
+        <v>102</v>
+      </c>
+      <c r="V40" s="116"/>
+      <c r="W40" s="116"/>
+      <c r="X40" s="116"/>
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="110"/>
     </row>
     <row r="41" spans="1:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" t="s" s="149">
-        <v>111</v>
-      </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" t="s" s="149">
-        <v>111</v>
-      </c>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" t="s" s="149">
-        <v>111</v>
-      </c>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="55"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" t="s" s="162">
+        <v>104</v>
+      </c>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="124"/>
+      <c r="P41" t="s" s="162">
+        <v>104</v>
+      </c>
+      <c r="Q41" s="124"/>
+      <c r="R41" s="124"/>
+      <c r="S41" s="124"/>
+      <c r="T41" s="124"/>
+      <c r="U41" t="s" s="162">
+        <v>104</v>
+      </c>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="110"/>
     </row>
     <row r="42" spans="1:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="56">
-        <v>43754</v>
-      </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="56">
-        <v>43754</v>
-      </c>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="57">
-        <v>43754</v>
-      </c>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="55"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" t="s" s="162">
+        <v>141</v>
+      </c>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="124"/>
+      <c r="P42" t="s" s="162">
+        <v>141</v>
+      </c>
+      <c r="Q42" s="124"/>
+      <c r="R42" s="124"/>
+      <c r="S42" s="124"/>
+      <c r="T42" s="124"/>
+      <c r="U42" t="s" s="162">
+        <v>141</v>
+      </c>
+      <c r="V42" s="109"/>
+      <c r="W42" s="109"/>
+      <c r="X42" s="109"/>
+      <c r="Y42" s="109"/>
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="110"/>
     </row>
     <row r="43" spans="1:28" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="50"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="122"/>
+      <c r="Y43" s="122"/>
+      <c r="Z43" s="122"/>
+      <c r="AA43" s="122"/>
+      <c r="AB43" s="123"/>
     </row>
     <row r="44" spans="1:28" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="43"/>
+      <c r="A44" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="119"/>
+      <c r="S44" s="119"/>
+      <c r="T44" s="119"/>
+      <c r="U44" s="119"/>
+      <c r="V44" s="119"/>
+      <c r="W44" s="119"/>
+      <c r="X44" s="119"/>
+      <c r="Y44" s="119"/>
+      <c r="Z44" s="119"/>
+      <c r="AA44" s="119"/>
+      <c r="AB44" s="119"/>
     </row>
     <row r="45" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -6521,89 +7730,101 @@
     <row r="429" ht="2.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:AB1"/>
-    <mergeCell ref="H2:AB2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:AB19"/>
-    <mergeCell ref="A15:G19"/>
-    <mergeCell ref="H15:P19"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:AB16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q15:AB15"/>
-    <mergeCell ref="A23:AB23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="H20:AB20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:AB21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:AB22"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="A44:AB44"/>
+    <mergeCell ref="W10:Y11"/>
+    <mergeCell ref="Z10:AB11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:O43"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="U43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:O41"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="F42:O42"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="U42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="U39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="S37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="L36:Q36"/>
@@ -6628,101 +7849,89 @@
     <mergeCell ref="S34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:Q37"/>
-    <mergeCell ref="S37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:O39"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="U39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="A44:AB44"/>
-    <mergeCell ref="W10:Y11"/>
-    <mergeCell ref="Z10:AB11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="F43:O43"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="U43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:O41"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:O42"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="U42:Y42"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A23:AB23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H20:AB20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="H21:AB21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:AB22"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:AB19"/>
+    <mergeCell ref="A15:G19"/>
+    <mergeCell ref="H15:P19"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:AB16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q15:AB15"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:AB1"/>
+    <mergeCell ref="H2:AB2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
